--- a/data/trans_camb/BARTHEL_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.5605522055954555</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.1187436435284094</v>
+        <v>-0.1187436435284073</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.893451213460949</v>
+        <v>-7.186776917542299</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.204789689696046</v>
+        <v>-10.08129229701829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.653962263722491</v>
+        <v>-10.35073499812928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.37074035723573</v>
+        <v>-11.92102897555382</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.17869268390753</v>
+        <v>-13.41023679798956</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.45378167423398</v>
+        <v>-15.42655620233999</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.015394996582387</v>
+        <v>-6.370501801018942</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.304600703809802</v>
+        <v>-7.815878724529547</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.421753679121943</v>
+        <v>-7.829359449623774</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.95311409487083</v>
+        <v>18.79299560855063</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.963839787486916</v>
+        <v>7.146058595529961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.257821181123287</v>
+        <v>4.773840590242298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.9235727276828</v>
+        <v>17.78933103735841</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.28245645168404</v>
+        <v>13.1733246442507</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.534112117919431</v>
+        <v>8.457693328439483</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.98934809541493</v>
+        <v>12.72660614560461</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.773963846220923</v>
+        <v>6.820593856491628</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.533043377781029</v>
+        <v>4.664679120032915</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.09301783487545287</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.01970427823845987</v>
+        <v>-0.01970427823845953</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
-      <c r="D8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.7443184859487327</v>
+        <v>-0.8014758561812773</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8562938614305878</v>
+        <v>-0.8620821027955672</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.7846469850463885</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8679256074619796</v>
+        <v>-0.8159861601351742</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.667743304729273</v>
+        <v>-0.6437200794062562</v>
       </c>
     </row>
     <row r="9">
@@ -811,19 +809,19 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>4.208636608824813</v>
+        <v>3.07113869587851</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>4.879159779319012</v>
+        <v>4.817316898805989</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.573415475506672</v>
+        <v>3.803683016371691</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.008592318053229</v>
+        <v>2.204261306013129</v>
       </c>
     </row>
     <row r="10">
@@ -873,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007923568856943243</v>
+        <v>0.2556846561595239</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.386268264348061</v>
+        <v>4.35855064785809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06743399029185319</v>
+        <v>0.002280404937055297</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-30.84579961899175</v>
+        <v>-32.33537779443912</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-26.40653847393888</v>
+        <v>-27.92945792012476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-37.66615412931717</v>
+        <v>-38.49831257584936</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.591699158558759</v>
+        <v>-4.106531186602178</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3621349088046434</v>
+        <v>0.3624558854597527</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.408990890263924</v>
+        <v>-5.755475315684867</v>
       </c>
     </row>
     <row r="12">
@@ -908,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.7367711429309</v>
+        <v>21.69065271927585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.80291590144902</v>
+        <v>23.47812054891617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.5516010119032</v>
+        <v>11.07695185250788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.0598114543523</v>
+        <v>25.73678268206475</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>41.02841759412234</v>
+        <v>39.05770021643045</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.851136646711243</v>
+        <v>8.017677356792504</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.60070211482937</v>
+        <v>15.34737555292378</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>22.69876310066243</v>
+        <v>22.12336055539451</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.276607272297873</v>
+        <v>8.412555561931189</v>
       </c>
     </row>
     <row r="13">
@@ -980,21 +978,19 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.8309626177450081</v>
+        <v>-0.8175212181918192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5998089111380843</v>
+        <v>-0.5958004647308784</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2602733397736448</v>
+        <v>-0.2360558903104911</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5403492236622098</v>
+        <v>-0.5209099554244183</v>
       </c>
     </row>
     <row r="15">
@@ -1010,16 +1006,16 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.483873343883615</v>
+        <v>1.438808176499728</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8.138365813265848</v>
+        <v>6.60039308909423</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8.514250239446183</v>
+        <v>9.853336130206568</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.152012561278156</v>
+        <v>4.38926848901038</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1045,7 @@
         <v>-2.695178091489372</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.332336835706963</v>
+        <v>2.332336835706961</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.610368475299445</v>
@@ -1058,7 +1054,7 @@
         <v>0.09287089301803914</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.398151093310126</v>
+        <v>4.398151093310124</v>
       </c>
     </row>
     <row r="17">
@@ -1069,31 +1065,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.121342079438701</v>
+        <v>-8.026520256897314</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.525300349384323</v>
+        <v>-6.527221259130241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.899290474357428</v>
+        <v>-5.60871960806019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-19.32909033816613</v>
+        <v>-19.41167734439674</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-25.70779843250519</v>
+        <v>-23.76021006012374</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-20.84692100564411</v>
+        <v>-17.04940055310781</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.377710860027209</v>
+        <v>-7.610869787356648</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.170890225017191</v>
+        <v>-8.054173896884748</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.846909170661569</v>
+        <v>-3.292668313603264</v>
       </c>
     </row>
     <row r="18">
@@ -1104,31 +1100,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.535895692059571</v>
+        <v>9.196272962405837</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.473303919942001</v>
+        <v>8.142924717997204</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.07653654893758</v>
+        <v>11.00348514865875</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.47012621077265</v>
+        <v>19.26356176770589</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.85061287281096</v>
+        <v>15.86892033741579</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.79216586167725</v>
+        <v>19.11823131424321</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.965721963295335</v>
+        <v>9.145554914374769</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.907630782522562</v>
+        <v>7.686154448538391</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.398959221408</v>
+        <v>11.78513229965712</v>
       </c>
     </row>
     <row r="19">
@@ -1154,7 +1150,7 @@
         <v>-0.1462723828832044</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1265803056660367</v>
+        <v>0.1265803056660366</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1460288576830883</v>
@@ -1163,7 +1159,7 @@
         <v>0.008421569738510165</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3988261009358602</v>
+        <v>0.39882610093586</v>
       </c>
     </row>
     <row r="20">
@@ -1174,31 +1170,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6777412480276143</v>
+        <v>-0.6223615385068315</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5869929992193358</v>
+        <v>-0.5177656632294686</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3904615652391366</v>
+        <v>-0.3650946939067016</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5874341320013319</v>
+        <v>-0.6264880928779337</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8170026168185407</v>
+        <v>-0.7921792455326802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6084548766150755</v>
+        <v>-0.5388337264114584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4695776731421388</v>
+        <v>-0.4817342127584752</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5222692969369103</v>
+        <v>-0.5118920431467923</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.279577046627403</v>
+        <v>-0.2200842240836451</v>
       </c>
     </row>
     <row r="21">
@@ -1209,31 +1205,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.947231153721032</v>
+        <v>2.221648768700327</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.739041334849416</v>
+        <v>2.120448603490368</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.399592418029203</v>
+        <v>2.565144278594961</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.994540952776013</v>
+        <v>3.449288184935217</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.295784853579002</v>
+        <v>2.752728432491056</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.155527239834235</v>
+        <v>3.819236600081223</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.366844338622504</v>
+        <v>1.43208009945535</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.300167815458847</v>
+        <v>1.328608247365957</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.902258609165895</v>
+        <v>1.910976602024014</v>
       </c>
     </row>
     <row r="22">
@@ -1254,7 +1250,7 @@
         <v>1.689664422280843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.954248063710232</v>
+        <v>8.954248063710224</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>14.6937280589573</v>
@@ -1263,7 +1259,7 @@
         <v>12.38346495888533</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.569798494838409</v>
+        <v>8.569798494838404</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.80496194162093</v>
@@ -1272,7 +1268,7 @@
         <v>5.183468070828123</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.821920374389466</v>
+        <v>8.821920374389469</v>
       </c>
     </row>
     <row r="23">
@@ -1283,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.765031940614926</v>
+        <v>5.996935670109821</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.563392011007088</v>
+        <v>-3.332647065111676</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.909712356454189</v>
+        <v>3.828336825145674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.374449613996323</v>
+        <v>2.629248120979168</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.821492395549652</v>
+        <v>1.383939300736874</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2938007180660953</v>
+        <v>-0.0549000033493088</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.471966825894497</v>
+        <v>7.115953455338826</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5050471044292517</v>
+        <v>-0.08632745480576483</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.232659589278756</v>
+        <v>4.357455864342874</v>
       </c>
     </row>
     <row r="24">
@@ -1318,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.86976363006206</v>
+        <v>19.60129795203066</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.689720961945023</v>
+        <v>7.090219305574349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.22037609244313</v>
+        <v>14.28493327960047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.56554070108134</v>
+        <v>26.7820757712468</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>24.64334872054247</v>
+        <v>24.53164492970709</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.07009638673259</v>
+        <v>15.10991668511702</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>19.30428216849608</v>
+        <v>18.7353699807251</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.67193647539544</v>
+        <v>10.299594790012</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.67121774924024</v>
+        <v>13.09513709720053</v>
       </c>
     </row>
     <row r="25">
@@ -1359,7 +1355,7 @@
         <v>0.1961591856097704</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.039530681219089</v>
+        <v>1.039530681219088</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.71331624238435</v>
@@ -1368,7 +1364,7 @@
         <v>1.44393523317739</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9992545728527334</v>
+        <v>0.9992545728527328</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.488182467432992</v>
@@ -1388,31 +1384,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4555446567382537</v>
+        <v>0.5102144809853185</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3419612167387802</v>
+        <v>-0.3222434051296099</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3387020608529767</v>
+        <v>0.3156074313886266</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1802407470479002</v>
+        <v>0.1141949446009542</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01026183740751982</v>
+        <v>-0.03198367047686658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003726774717947327</v>
+        <v>-0.0407378526290741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6982843170916423</v>
+        <v>0.6145757201607462</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01009283816637399</v>
+        <v>-0.01308825956511672</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3742734995129879</v>
+        <v>0.3710663504348252</v>
       </c>
     </row>
     <row r="27">
@@ -1423,31 +1419,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.890968409016782</v>
+        <v>3.189942137533653</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.017775850935756</v>
+        <v>1.064603759446376</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.37705283727534</v>
+        <v>2.236400809257861</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6.087627825450431</v>
+        <v>5.862468491111404</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.497125615478762</v>
+        <v>5.347767360085768</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.820477905062233</v>
+        <v>3.821787857444754</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.916926457351875</v>
+        <v>2.690335928398386</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.569980742721159</v>
+        <v>1.552183420034507</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.939888765210975</v>
+        <v>1.916410256465144</v>
       </c>
     </row>
     <row r="28">
@@ -1468,7 +1464,7 @@
         <v>5.655045239061013</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.03648752729609461</v>
+        <v>0.03648752729609739</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>14.85047504951474</v>
@@ -1486,7 +1482,7 @@
         <v>3.824036386617125</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.001954835904758</v>
+        <v>7.001954835904756</v>
       </c>
     </row>
     <row r="29">
@@ -1497,31 +1493,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.83241688090434</v>
+        <v>-10.36148712085221</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.114878864705959</v>
+        <v>-5.468309052300452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.37679024354505</v>
+        <v>-11.20246688897086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.897904112549647</v>
+        <v>3.934741104656229</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.458566423063867</v>
+        <v>-7.4173363531418</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3810412108946536</v>
+        <v>-0.08211700664840189</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.665461751287664</v>
+        <v>1.940667878958118</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.85028326895898</v>
+        <v>-4.015623790084328</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.6190054669630324</v>
+        <v>-0.1008201052474631</v>
       </c>
     </row>
     <row r="30">
@@ -1532,31 +1528,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.70970720988895</v>
+        <v>12.30044447757737</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.2783317790335</v>
+        <v>15.27615457268282</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.592014015254719</v>
+        <v>9.045675966479132</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.66432740254292</v>
+        <v>25.14037048933967</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.98755118730911</v>
+        <v>13.33963863207464</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.61933061609373</v>
+        <v>18.79383494028379</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.4839835718456</v>
+        <v>19.12627356891669</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.6219585574721</v>
+        <v>11.85472358201444</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.08646232051152</v>
+        <v>13.74307221215954</v>
       </c>
     </row>
     <row r="31">
@@ -1573,7 +1569,7 @@
         <v>0.4273114854614619</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.002757102521835654</v>
+        <v>0.002757102521835863</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7748133952734944</v>
@@ -1591,7 +1587,7 @@
         <v>0.2249742573444734</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4119363494238994</v>
+        <v>0.4119363494238992</v>
       </c>
     </row>
     <row r="32">
@@ -1602,31 +1598,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5002276099240889</v>
+        <v>-0.5359246628928159</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3199164324038287</v>
+        <v>-0.2751970729342018</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5562594873688281</v>
+        <v>-0.5247626885349196</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09456119982963392</v>
+        <v>0.1459930074574183</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3107169814232127</v>
+        <v>-0.3023204711000285</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01035589262859809</v>
+        <v>-0.01192478311118032</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0716060454382582</v>
+        <v>0.0808746170102916</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2220181994665369</v>
+        <v>-0.1859708741597719</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03277082226338029</v>
+        <v>-0.0284828191884951</v>
       </c>
     </row>
     <row r="33">
@@ -1637,31 +1633,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.666704663706778</v>
+        <v>1.786450179074104</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.297899759560978</v>
+        <v>2.322819874898853</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.299406651884215</v>
+        <v>1.27199402455095</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.881375125995139</v>
+        <v>1.969712908261279</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.017699777141936</v>
+        <v>1.011818245918908</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.506669480980707</v>
+        <v>1.484574296192616</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.43392589417641</v>
+        <v>1.76030617076076</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8552170718736785</v>
+        <v>0.9591866749262343</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.064136209428285</v>
+        <v>1.127994289778337</v>
       </c>
     </row>
     <row r="34">
@@ -1698,7 +1694,7 @@
         <v>10.64657310975835</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>14.01589668543361</v>
+        <v>14.01589668543362</v>
       </c>
     </row>
     <row r="35">
@@ -1714,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.892539979581458</v>
+        <v>6.051300504844507</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.63355750456953</v>
+        <v>4.596249374067793</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>8.685558203275297</v>
+        <v>8.340803427432347</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.197970859366361</v>
+        <v>5.803992087667796</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.754351961102647</v>
+        <v>4.654396772779242</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>9.087715882889341</v>
+        <v>8.639796783658218</v>
       </c>
     </row>
     <row r="36">
@@ -1742,25 +1738,25 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>72.16154690530149</v>
+        <v>71.67320982215601</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16.75047606985249</v>
+        <v>17.06088697242009</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.28409633867524</v>
+        <v>16.20802272040278</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>18.9787380129813</v>
+        <v>18.45113009963919</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>17.17704346650695</v>
+        <v>16.88214896195128</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>16.07361549343156</v>
+        <v>16.17281055870452</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.63523655932245</v>
+        <v>18.83915964103583</v>
       </c>
     </row>
     <row r="37">
@@ -1807,22 +1803,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.3753577121080773</v>
+        <v>0.3884778174080388</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2929670938881704</v>
+        <v>0.3218817037339605</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5578130647161816</v>
+        <v>0.515503699499577</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4038750524927343</v>
+        <v>0.3560444843283259</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3001380872490462</v>
+        <v>0.2808280652499509</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.5897199630710994</v>
+        <v>0.558903176432012</v>
       </c>
     </row>
     <row r="39">
@@ -1836,22 +1832,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.608062144302639</v>
+        <v>1.606656259705002</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.494098782779769</v>
+        <v>1.501198963382936</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.818130124192983</v>
+        <v>1.762962786638992</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.634156045389737</v>
+        <v>1.579051854764871</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.524063554739462</v>
+        <v>1.504619795413185</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.817681767109609</v>
+        <v>1.818559898964845</v>
       </c>
     </row>
     <row r="40">
@@ -1881,7 +1877,7 @@
         <v>8.389569212100048</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>9.503193792278166</v>
+        <v>9.50319379227817</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>10.01183753012114</v>
@@ -1901,31 +1897,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.980110273118007</v>
+        <v>3.023659914151946</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.2096367010101223</v>
+        <v>0.6558369436722811</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.288225529527605</v>
+        <v>1.35773461081819</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7.465612173814963</v>
+        <v>8.161561677291058</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.260530383855287</v>
+        <v>4.160158147907075</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.137901757379819</v>
+        <v>6.069863617844653</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>7.151815506768237</v>
+        <v>7.011078284878626</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.981203434518281</v>
+        <v>3.479012158061723</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.713658950892647</v>
+        <v>4.716242362766707</v>
       </c>
     </row>
     <row r="42">
@@ -1936,31 +1932,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.85882599479653</v>
+        <v>10.92165303149323</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.022903534770049</v>
+        <v>7.250345174179662</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.471131781698309</v>
+        <v>7.771522499431932</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.84612654871696</v>
+        <v>16.62532250166654</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.02518740097342</v>
+        <v>12.92579955983403</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.01670321257401</v>
+        <v>12.78047382608728</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>12.94152262332065</v>
+        <v>13.21087550662394</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.818457791454929</v>
+        <v>9.263562320238021</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.527577282694201</v>
+        <v>9.488426159002671</v>
       </c>
     </row>
     <row r="43">
@@ -1986,7 +1982,7 @@
         <v>0.6233506208667796</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7060936742842712</v>
+        <v>0.7060936742842714</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.9006308929039679</v>
@@ -2006,31 +2002,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2881145424701157</v>
+        <v>0.2997308678377488</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.01567826264120782</v>
+        <v>0.06943328673011577</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1142192701037014</v>
+        <v>0.1371842928869132</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.4837499608387448</v>
+        <v>0.5169977270775363</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2789598493991799</v>
+        <v>0.2724385746302064</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3828931303737423</v>
+        <v>0.3783872294596025</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5815240806656216</v>
+        <v>0.5616448330160122</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3254068953715267</v>
+        <v>0.286719572105607</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3685719438054685</v>
+        <v>0.3499049297702116</v>
       </c>
     </row>
     <row r="45">
@@ -2041,31 +2037,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.664648050622395</v>
+        <v>1.66329462986897</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.086829122081605</v>
+        <v>1.1663794544332</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.153793036341565</v>
+        <v>1.271810302103587</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.482407570074637</v>
+        <v>1.471149702987657</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.10771412579713</v>
+        <v>1.152113728395711</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.152644593111529</v>
+        <v>1.132283836786278</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.315097116495501</v>
+        <v>1.3524004489379</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.033447838376718</v>
+        <v>0.9693188054738044</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.008286632537335</v>
+        <v>0.9733121081961048</v>
       </c>
     </row>
     <row r="46">
